--- a/Phase2/InstancesV2/instancePolandV2.xlsx
+++ b/Phase2/InstancesV2/instancePolandV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-laurencethoux/Documents/Thèse/ST_CtlSup/InstancesV2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eccyp\Documents\administratif_CS\2A\ST7 Optimisation Transport\DecisionBrain\projetST7\Phase2\InstancesV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42E9975-8F7D-D74F-8693-EB943C824AC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1827AB-24B9-4AC0-B76E-53DDC92E861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43340" yWindow="6580" windowWidth="32940" windowHeight="14420" activeTab="1" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tasks" sheetId="2" r:id="rId3"/>
     <sheet name="Tasks Unavailabilities" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Latitude</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>WorkingEndTime</t>
-  </si>
-  <si>
-    <t>Plumbing</t>
   </si>
   <si>
     <t>8:00am</t>
@@ -658,13 +655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -687,9 +684,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -698,21 +695,21 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -721,23 +718,23 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -752,16 +749,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01047E50-680E-6E44-B1C1-C059D55D6702}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -772,15 +769,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -789,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -804,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -817,9 +814,9 @@
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -828,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -837,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -863,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -889,13 +886,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -915,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -941,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -967,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -993,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1019,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1045,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1071,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1097,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1123,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1149,13 +1146,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1175,13 +1172,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1201,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1227,13 +1224,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -1253,13 +1250,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1279,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1305,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1331,366 +1328,366 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D130" s="1"/>
     </row>
   </sheetData>
@@ -1707,31 +1704,31 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
